--- a/dd.xlsx
+++ b/dd.xlsx
@@ -1,72 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="540" windowWidth="19095" windowHeight="8550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -81,43 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -405,205 +426,341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>range</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ror</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>hpr</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>dd</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44323.375</v>
+      </c>
+      <c r="B2" t="n">
+        <v>68760000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>69729000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>66900000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>68563000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12047.2144486</v>
+      </c>
+      <c r="G2" t="n">
+        <v>819798222797.3926</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1414500</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44324.375</v>
+      </c>
+      <c r="B3" t="n">
+        <v>68564000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>71879000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>67610000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>71740000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12558.40386779</v>
+      </c>
+      <c r="G3" t="n">
+        <v>881404495950.6096</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2134500</v>
+      </c>
+      <c r="I3" t="n">
+        <v>69978500</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.025172017119544</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.025172017119544</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44325.375</v>
+      </c>
+      <c r="B4" t="n">
+        <v>71728000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>73129000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>70147000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>71505000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11786.59649177</v>
+      </c>
+      <c r="G4" t="n">
+        <v>843543861353.1299</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1491000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>73862500</v>
+      </c>
+      <c r="J4" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
+      <c r="K4" t="n">
+        <v>1.025172017119544</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2">
-        <v>44317.375</v>
-      </c>
-      <c r="B2">
-        <v>67956000</v>
-      </c>
-      <c r="C2">
-        <v>69386000</v>
-      </c>
-      <c r="D2">
-        <v>67557000</v>
-      </c>
-      <c r="E2">
-        <v>69049000</v>
-      </c>
-      <c r="F2">
-        <v>9860.6075216200006</v>
-      </c>
-      <c r="G2">
-        <v>678036571369.5531</v>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44326.375</v>
+      </c>
+      <c r="B5" t="n">
+        <v>71506000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>72460000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>70175000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>70902000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13095.61795155</v>
+      </c>
+      <c r="G5" t="n">
+        <v>937319614814.2896</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1142500</v>
+      </c>
+      <c r="I5" t="n">
+        <v>72997000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.025172017119544</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2">
-        <v>44318.375</v>
-      </c>
-      <c r="B3">
-        <v>69041000</v>
-      </c>
-      <c r="C3">
-        <v>69297000</v>
-      </c>
-      <c r="D3">
-        <v>66803000</v>
-      </c>
-      <c r="E3">
-        <v>68452000</v>
-      </c>
-      <c r="F3">
-        <v>7970.0582514799999</v>
-      </c>
-      <c r="G3">
-        <v>543840519215.37402</v>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44327.375</v>
+      </c>
+      <c r="B6" t="n">
+        <v>70902000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>71750000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>67597000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>69741000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11913.27782776</v>
+      </c>
+      <c r="G6" t="n">
+        <v>827117551931.2306</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2076500</v>
+      </c>
+      <c r="I6" t="n">
+        <v>72044500</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.025172017119544</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2">
-        <v>44319.375</v>
-      </c>
-      <c r="B4">
-        <v>68452000</v>
-      </c>
-      <c r="C4">
-        <v>70999000</v>
-      </c>
-      <c r="D4">
-        <v>68281000</v>
-      </c>
-      <c r="E4">
-        <v>69996000</v>
-      </c>
-      <c r="F4">
-        <v>9426.0984522300005</v>
-      </c>
-      <c r="G4">
-        <v>658850341681.76709</v>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44328.375</v>
+      </c>
+      <c r="B7" t="n">
+        <v>69714000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>70499000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>60854000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>62257000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>22173.2380688</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1505871625063.243</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4822500</v>
+      </c>
+      <c r="I7" t="n">
+        <v>71790500</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.025172017119544</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2">
-        <v>44320.375</v>
-      </c>
-      <c r="B5">
-        <v>69996000</v>
-      </c>
-      <c r="C5">
-        <v>70490000</v>
-      </c>
-      <c r="D5">
-        <v>66500000</v>
-      </c>
-      <c r="E5">
-        <v>66829000</v>
-      </c>
-      <c r="F5">
-        <v>12631.44767277</v>
-      </c>
-      <c r="G5">
-        <v>868902295221.62378</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2">
-        <v>44321.375</v>
-      </c>
-      <c r="B6">
-        <v>66828000</v>
-      </c>
-      <c r="C6">
-        <v>70007000</v>
-      </c>
-      <c r="D6">
-        <v>66500000</v>
-      </c>
-      <c r="E6">
-        <v>68679000</v>
-      </c>
-      <c r="F6">
-        <v>11726.552197540001</v>
-      </c>
-      <c r="G6">
-        <v>804019149932.31665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2">
-        <v>44322.375</v>
-      </c>
-      <c r="B7">
-        <v>68700000</v>
-      </c>
-      <c r="C7">
-        <v>70853000</v>
-      </c>
-      <c r="D7">
-        <v>67899000</v>
-      </c>
-      <c r="E7">
-        <v>68767000</v>
-      </c>
-      <c r="F7">
-        <v>13078.36833227</v>
-      </c>
-      <c r="G7">
-        <v>904065399221.23132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2">
-        <v>44323.375</v>
-      </c>
-      <c r="B8">
-        <v>68760000</v>
-      </c>
-      <c r="C8">
-        <v>69300000</v>
-      </c>
-      <c r="D8">
-        <v>66900000</v>
-      </c>
-      <c r="E8">
-        <v>67451000</v>
-      </c>
-      <c r="F8">
-        <v>5803.10475709</v>
-      </c>
-      <c r="G8">
-        <v>393458815323.3175</v>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44329.375</v>
+      </c>
+      <c r="B8" t="n">
+        <v>62380000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>65472000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>60200000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>62440000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15539.91088651</v>
+      </c>
+      <c r="G8" t="n">
+        <v>983913261760.0111</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2636000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>67202500</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.025172017119544</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>